--- a/data/trans_orig/P21D4_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P21D4_2023-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{98D0A525-FCAF-46B8-AABB-37AD06FAF8B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D22B8123-4B1A-4275-A7F8-3DFA47613EBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{38628228-5BBF-41DC-A9BF-9DB0B5542546}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{575A0F00-725A-4CDF-A09D-344DAEEFB7E7}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,9 +36,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="150">
-  <si>
-    <t>Población que, necesitandolo, no pudo recibir atención médica mental (psicólogo) en 2023 (Tasa respuesta: 43,83%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="148">
+  <si>
+    <t>Población que, necesitándolo, no pudo recibir atención médica mental (psicólogo) en 2023 (Tasa respuesta: 43,83%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -74,28 +74,28 @@
     <t>94,08%</t>
   </si>
   <si>
-    <t>90,43%</t>
-  </si>
-  <si>
-    <t>96,63%</t>
+    <t>90,3%</t>
+  </si>
+  <si>
+    <t>96,73%</t>
   </si>
   <si>
     <t>90,45%</t>
   </si>
   <si>
-    <t>87,69%</t>
-  </si>
-  <si>
-    <t>92,65%</t>
+    <t>87,93%</t>
+  </si>
+  <si>
+    <t>92,79%</t>
   </si>
   <si>
     <t>91,87%</t>
   </si>
   <si>
-    <t>89,64%</t>
-  </si>
-  <si>
-    <t>93,42%</t>
+    <t>89,68%</t>
+  </si>
+  <si>
+    <t>93,63%</t>
   </si>
   <si>
     <t>Sí lo pudo recibir</t>
@@ -104,28 +104,28 @@
     <t>5,23%</t>
   </si>
   <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>8,94%</t>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
   </si>
   <si>
     <t>7,0%</t>
   </si>
   <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>9,31%</t>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
   </si>
   <si>
     <t>6,31%</t>
   </si>
   <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
   </si>
   <si>
     <t>No lo pudo recibir por otros motivos</t>
@@ -137,25 +137,25 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>1,32%</t>
+    <t>1,03%</t>
   </si>
   <si>
     <t>1,5%</t>
   </si>
   <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
   </si>
   <si>
     <t>1,01%</t>
   </si>
   <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
   </si>
   <si>
     <t>No lo pudo recibir por motivos económicos</t>
@@ -164,16 +164,16 @@
     <t>0,45%</t>
   </si>
   <si>
-    <t>2,1%</t>
+    <t>2,2%</t>
   </si>
   <si>
     <t>1,05%</t>
   </si>
   <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
   </si>
   <si>
     <t>0,81%</t>
@@ -182,7 +182,7 @@
     <t>0,34%</t>
   </si>
   <si>
-    <t>1,61%</t>
+    <t>1,73%</t>
   </si>
   <si>
     <t>100%</t>
@@ -194,157 +194,157 @@
     <t>89,79%</t>
   </si>
   <si>
-    <t>73,05%</t>
-  </si>
-  <si>
-    <t>95,52%</t>
+    <t>73,84%</t>
+  </si>
+  <si>
+    <t>95,49%</t>
   </si>
   <si>
     <t>91,62%</t>
   </si>
   <si>
-    <t>93,09%</t>
+    <t>89,63%</t>
+  </si>
+  <si>
+    <t>93,17%</t>
   </si>
   <si>
     <t>90,71%</t>
   </si>
   <si>
-    <t>80,5%</t>
-  </si>
-  <si>
-    <t>93,58%</t>
+    <t>81,49%</t>
+  </si>
+  <si>
+    <t>93,69%</t>
   </si>
   <si>
     <t>9,39%</t>
   </si>
   <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>26,02%</t>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>25,65%</t>
   </si>
   <si>
     <t>6,73%</t>
   </si>
   <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
   </si>
   <si>
     <t>8,05%</t>
   </si>
   <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>18,36%</t>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>17,32%</t>
   </si>
   <si>
     <t>0,75%</t>
   </si>
   <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
     <t>0,32%</t>
   </si>
   <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
   </si>
   <si>
     <t>0,3%</t>
   </si>
   <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
     <t>Universitarios</t>
   </si>
   <si>
     <t>89,51%</t>
   </si>
   <si>
-    <t>84,27%</t>
-  </si>
-  <si>
-    <t>93,19%</t>
+    <t>84,39%</t>
+  </si>
+  <si>
+    <t>92,99%</t>
   </si>
   <si>
     <t>91,8%</t>
   </si>
   <si>
-    <t>88,09%</t>
-  </si>
-  <si>
-    <t>94,28%</t>
+    <t>88,11%</t>
+  </si>
+  <si>
+    <t>94,57%</t>
   </si>
   <si>
     <t>90,68%</t>
   </si>
   <si>
-    <t>87,35%</t>
-  </si>
-  <si>
-    <t>92,81%</t>
+    <t>87,59%</t>
+  </si>
+  <si>
+    <t>92,88%</t>
   </si>
   <si>
     <t>8,37%</t>
   </si>
   <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>13,13%</t>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>12,95%</t>
   </si>
   <si>
     <t>6,76%</t>
   </si>
   <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>9,91%</t>
   </si>
   <si>
     <t>7,55%</t>
   </si>
   <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>9,94%</t>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>10,34%</t>
   </si>
   <si>
     <t>1,58%</t>
@@ -353,91 +353,91 @@
     <t>0,38%</t>
   </si>
   <si>
-    <t>4,06%</t>
+    <t>3,89%</t>
   </si>
   <si>
     <t>1,23%</t>
   </si>
   <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
   </si>
   <si>
     <t>1,4%</t>
   </si>
   <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
   </si>
   <si>
     <t>0,2%</t>
   </si>
   <si>
-    <t>0,37%</t>
-  </si>
-  <si>
     <t>0,09%</t>
   </si>
   <si>
+    <t>1,09%</t>
+  </si>
+  <si>
     <t>90,41%</t>
   </si>
   <si>
-    <t>78,19%</t>
-  </si>
-  <si>
-    <t>94,03%</t>
+    <t>79,44%</t>
+  </si>
+  <si>
+    <t>94,06%</t>
   </si>
   <si>
     <t>91,4%</t>
   </si>
   <si>
-    <t>89,95%</t>
-  </si>
-  <si>
-    <t>92,52%</t>
+    <t>90,08%</t>
+  </si>
+  <si>
+    <t>92,61%</t>
   </si>
   <si>
     <t>90,93%</t>
   </si>
   <si>
-    <t>85,13%</t>
-  </si>
-  <si>
-    <t>92,79%</t>
+    <t>85,27%</t>
+  </si>
+  <si>
+    <t>92,78%</t>
   </si>
   <si>
     <t>8,51%</t>
   </si>
   <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>21,1%</t>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>19,95%</t>
   </si>
   <si>
     <t>6,8%</t>
   </si>
   <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
   </si>
   <si>
     <t>7,61%</t>
   </si>
   <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>13,3%</t>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>13,45%</t>
   </si>
   <si>
     <t>0,85%</t>
@@ -446,7 +446,7 @@
     <t>0,46%</t>
   </si>
   <si>
-    <t>1,51%</t>
+    <t>1,54%</t>
   </si>
   <si>
     <t>0,96%</t>
@@ -455,34 +455,28 @@
     <t>0,58%</t>
   </si>
   <si>
-    <t>1,59%</t>
-  </si>
-  <si>
     <t>0,91%</t>
   </si>
   <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
   </si>
   <si>
     <t>0,56%</t>
   </si>
   <si>
-    <t>0,84%</t>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -897,7 +891,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E3B9469-015C-423C-93B6-AB2A7A28BDCD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDACA0B9-408F-4A6F-93DA-E1182EA15ABA}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1296,25 +1290,25 @@
         <v>54</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M9" s="7">
         <v>1974</v>
       </c>
       <c r="N9" s="7">
-        <v>1733975</v>
+        <v>1733974</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1329,13 +1323,13 @@
         <v>89005</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H10" s="7">
         <v>86</v>
@@ -1344,13 +1338,13 @@
         <v>64825</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M10" s="7">
         <v>119</v>
@@ -1359,13 +1353,13 @@
         <v>153830</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1380,10 +1374,10 @@
         <v>7102</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>70</v>
@@ -1461,13 +1455,13 @@
         <v>10282</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1509,7 +1503,7 @@
         <v>2125</v>
       </c>
       <c r="N13" s="7">
-        <v>1911465</v>
+        <v>1911464</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>49</v>
@@ -1688,7 +1682,7 @@
         <v>1746</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>32</v>
@@ -1709,7 +1703,7 @@
         <v>32</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="M17" s="7">
         <v>3</v>
@@ -1718,13 +1712,13 @@
         <v>2436</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1915,7 +1909,7 @@
         <v>138</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="M21" s="7">
         <v>34</v>
@@ -1924,13 +1918,13 @@
         <v>28897</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="P21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -1945,13 +1939,13 @@
         <v>3522</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>143</v>
+        <v>107</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>77</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="H22" s="7">
         <v>21</v>
@@ -1963,10 +1957,10 @@
         <v>134</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="M22" s="7">
         <v>25</v>
@@ -1975,13 +1969,13 @@
         <v>17704</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>114</v>
+        <v>145</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2037,7 +2031,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P21D4_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P21D4_2023-Estudios-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D22B8123-4B1A-4275-A7F8-3DFA47613EBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{92D3F5BD-632E-4F11-9409-8F49264D3898}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{575A0F00-725A-4CDF-A09D-344DAEEFB7E7}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{0540E496-6729-4107-A50F-A23555417825}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -891,7 +891,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDACA0B9-408F-4A6F-93DA-E1182EA15ABA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A645825F-D677-4D7F-AF14-3933321448B1}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P21D4_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P21D4_2023-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{92D3F5BD-632E-4F11-9409-8F49264D3898}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{32C7E070-DA52-457F-87C9-48D43BCFA02E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{0540E496-6729-4107-A50F-A23555417825}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{4E47BEC6-291A-4ACC-AF13-144A248643CF}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="150">
   <si>
     <t>Población que, necesitándolo, no pudo recibir atención médica mental (psicólogo) en 2023 (Tasa respuesta: 43,83%)</t>
   </si>
@@ -74,409 +74,415 @@
     <t>94,08%</t>
   </si>
   <si>
-    <t>90,3%</t>
-  </si>
-  <si>
-    <t>96,73%</t>
+    <t>90,43%</t>
+  </si>
+  <si>
+    <t>96,63%</t>
   </si>
   <si>
     <t>90,45%</t>
   </si>
   <si>
-    <t>87,93%</t>
+    <t>87,69%</t>
+  </si>
+  <si>
+    <t>92,65%</t>
+  </si>
+  <si>
+    <t>91,87%</t>
+  </si>
+  <si>
+    <t>89,64%</t>
+  </si>
+  <si>
+    <t>93,42%</t>
+  </si>
+  <si>
+    <t>Sí lo pudo recibir</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>8,94%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>No lo pudo recibir por otros motivos</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>No lo pudo recibir por motivos económicos</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>89,79%</t>
+  </si>
+  <si>
+    <t>73,05%</t>
+  </si>
+  <si>
+    <t>95,52%</t>
+  </si>
+  <si>
+    <t>91,62%</t>
+  </si>
+  <si>
+    <t>93,09%</t>
+  </si>
+  <si>
+    <t>90,71%</t>
+  </si>
+  <si>
+    <t>80,5%</t>
+  </si>
+  <si>
+    <t>93,58%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>26,02%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>18,36%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>89,51%</t>
+  </si>
+  <si>
+    <t>84,27%</t>
+  </si>
+  <si>
+    <t>93,19%</t>
+  </si>
+  <si>
+    <t>91,8%</t>
+  </si>
+  <si>
+    <t>88,09%</t>
+  </si>
+  <si>
+    <t>94,28%</t>
+  </si>
+  <si>
+    <t>90,68%</t>
+  </si>
+  <si>
+    <t>87,35%</t>
+  </si>
+  <si>
+    <t>92,81%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>13,13%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>9,94%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>90,41%</t>
+  </si>
+  <si>
+    <t>78,19%</t>
+  </si>
+  <si>
+    <t>94,03%</t>
+  </si>
+  <si>
+    <t>91,4%</t>
+  </si>
+  <si>
+    <t>89,95%</t>
+  </si>
+  <si>
+    <t>92,52%</t>
+  </si>
+  <si>
+    <t>90,93%</t>
+  </si>
+  <si>
+    <t>85,13%</t>
   </si>
   <si>
     <t>92,79%</t>
   </si>
   <si>
-    <t>91,87%</t>
-  </si>
-  <si>
-    <t>89,68%</t>
-  </si>
-  <si>
-    <t>93,63%</t>
-  </si>
-  <si>
-    <t>Sí lo pudo recibir</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>No lo pudo recibir por otros motivos</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>No lo pudo recibir por motivos económicos</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>89,79%</t>
-  </si>
-  <si>
-    <t>73,84%</t>
-  </si>
-  <si>
-    <t>95,49%</t>
-  </si>
-  <si>
-    <t>91,62%</t>
-  </si>
-  <si>
-    <t>89,63%</t>
-  </si>
-  <si>
-    <t>93,17%</t>
-  </si>
-  <si>
-    <t>90,71%</t>
-  </si>
-  <si>
-    <t>81,49%</t>
-  </si>
-  <si>
-    <t>93,69%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>25,65%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>17,32%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>89,51%</t>
-  </si>
-  <si>
-    <t>84,39%</t>
-  </si>
-  <si>
-    <t>92,99%</t>
-  </si>
-  <si>
-    <t>91,8%</t>
-  </si>
-  <si>
-    <t>88,11%</t>
-  </si>
-  <si>
-    <t>94,57%</t>
-  </si>
-  <si>
-    <t>90,68%</t>
-  </si>
-  <si>
-    <t>87,59%</t>
-  </si>
-  <si>
-    <t>92,88%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>12,95%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>10,34%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>21,1%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>13,3%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
   </si>
   <si>
     <t>0,23%</t>
   </si>
   <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>90,41%</t>
-  </si>
-  <si>
-    <t>79,44%</t>
-  </si>
-  <si>
-    <t>94,06%</t>
-  </si>
-  <si>
-    <t>91,4%</t>
-  </si>
-  <si>
-    <t>90,08%</t>
-  </si>
-  <si>
-    <t>92,61%</t>
-  </si>
-  <si>
-    <t>90,93%</t>
-  </si>
-  <si>
-    <t>85,27%</t>
-  </si>
-  <si>
-    <t>92,78%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>19,95%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>13,45%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
   </si>
   <si>
     <t>0,56%</t>
   </si>
   <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
+    <t>0,84%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -891,7 +897,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A645825F-D677-4D7F-AF14-3933321448B1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C260711A-E318-45CC-B21B-564FE7034D7A}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1290,25 +1296,25 @@
         <v>54</v>
       </c>
       <c r="K9" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="L9" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>56</v>
       </c>
       <c r="M9" s="7">
         <v>1974</v>
       </c>
       <c r="N9" s="7">
-        <v>1733974</v>
+        <v>1733975</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1323,13 +1329,13 @@
         <v>89005</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="H10" s="7">
         <v>86</v>
@@ -1338,13 +1344,13 @@
         <v>64825</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="M10" s="7">
         <v>119</v>
@@ -1353,13 +1359,13 @@
         <v>153830</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>67</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1374,10 +1380,10 @@
         <v>7102</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>47</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>70</v>
@@ -1455,13 +1461,13 @@
         <v>10282</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1503,7 +1509,7 @@
         <v>2125</v>
       </c>
       <c r="N13" s="7">
-        <v>1911464</v>
+        <v>1911465</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>49</v>
@@ -1682,7 +1688,7 @@
         <v>1746</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>32</v>
@@ -1703,7 +1709,7 @@
         <v>32</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="M17" s="7">
         <v>3</v>
@@ -1712,13 +1718,13 @@
         <v>2436</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>78</v>
+        <v>114</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>115</v>
+        <v>79</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1909,7 +1915,7 @@
         <v>138</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="M21" s="7">
         <v>34</v>
@@ -1918,13 +1924,13 @@
         <v>28897</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -1939,13 +1945,13 @@
         <v>3522</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>107</v>
+        <v>143</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>77</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="H22" s="7">
         <v>21</v>
@@ -1957,10 +1963,10 @@
         <v>134</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="M22" s="7">
         <v>25</v>
@@ -1969,13 +1975,13 @@
         <v>17704</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>145</v>
+        <v>114</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2031,7 +2037,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P21D4_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P21D4_2023-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{32C7E070-DA52-457F-87C9-48D43BCFA02E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9A0F1AE8-A8D5-45C2-BD61-60AED46FC48E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{4E47BEC6-291A-4ACC-AF13-144A248643CF}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{433292CE-2B9A-47F0-A384-96112BBDBA20}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="149">
   <si>
     <t>Población que, necesitándolo, no pudo recibir atención médica mental (psicólogo) en 2023 (Tasa respuesta: 43,83%)</t>
   </si>
@@ -71,418 +71,415 @@
     <t>No lo ha necesitado</t>
   </si>
   <si>
+    <t>94,23%</t>
+  </si>
+  <si>
+    <t>90,51%</t>
+  </si>
+  <si>
+    <t>96,71%</t>
+  </si>
+  <si>
+    <t>90,43%</t>
+  </si>
+  <si>
+    <t>87,75%</t>
+  </si>
+  <si>
+    <t>92,54%</t>
+  </si>
+  <si>
+    <t>91,98%</t>
+  </si>
+  <si>
+    <t>89,7%</t>
+  </si>
+  <si>
+    <t>93,57%</t>
+  </si>
+  <si>
+    <t>Sí lo pudo recibir</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>No lo pudo recibir por otros motivos</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>No lo pudo recibir por motivos económicos</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>74,2%</t>
+  </si>
+  <si>
+    <t>38,65%</t>
+  </si>
+  <si>
+    <t>95,5%</t>
+  </si>
+  <si>
+    <t>92,18%</t>
+  </si>
+  <si>
+    <t>90,26%</t>
+  </si>
+  <si>
     <t>94,08%</t>
   </si>
   <si>
-    <t>90,43%</t>
-  </si>
-  <si>
-    <t>96,63%</t>
-  </si>
-  <si>
-    <t>90,45%</t>
-  </si>
-  <si>
-    <t>87,69%</t>
-  </si>
-  <si>
-    <t>92,65%</t>
-  </si>
-  <si>
-    <t>91,87%</t>
-  </si>
-  <si>
-    <t>89,64%</t>
-  </si>
-  <si>
-    <t>93,42%</t>
-  </si>
-  <si>
-    <t>Sí lo pudo recibir</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>8,94%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
+    <t>82,4%</t>
+  </si>
+  <si>
+    <t>52,44%</t>
+  </si>
+  <si>
+    <t>93,99%</t>
+  </si>
+  <si>
+    <t>25,14%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>60,73%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>16,53%</t>
   </si>
   <si>
     <t>4,87%</t>
   </si>
   <si>
+    <t>46,79%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>89,45%</t>
+  </si>
+  <si>
+    <t>83,79%</t>
+  </si>
+  <si>
+    <t>93,14%</t>
+  </si>
+  <si>
+    <t>91,8%</t>
+  </si>
+  <si>
+    <t>88,15%</t>
+  </si>
+  <si>
+    <t>94,34%</t>
+  </si>
+  <si>
+    <t>90,63%</t>
+  </si>
+  <si>
+    <t>87,37%</t>
+  </si>
+  <si>
+    <t>92,8%</t>
+  </si>
+  <si>
     <t>8,52%</t>
   </si>
   <si>
-    <t>No lo pudo recibir por otros motivos</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>13,51%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>9,83%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>10,14%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
   </si>
   <si>
     <t>1,01%</t>
   </si>
   <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>No lo pudo recibir por motivos económicos</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>89,79%</t>
-  </si>
-  <si>
-    <t>73,05%</t>
-  </si>
-  <si>
-    <t>95,52%</t>
-  </si>
-  <si>
-    <t>91,62%</t>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>79,84%</t>
+  </si>
+  <si>
+    <t>46,67%</t>
+  </si>
+  <si>
+    <t>94,15%</t>
+  </si>
+  <si>
+    <t>91,73%</t>
+  </si>
+  <si>
+    <t>90,31%</t>
+  </si>
+  <si>
+    <t>93,07%</t>
+  </si>
+  <si>
+    <t>85,65%</t>
+  </si>
+  <si>
+    <t>64,74%</t>
   </si>
   <si>
     <t>93,09%</t>
   </si>
   <si>
-    <t>90,71%</t>
-  </si>
-  <si>
-    <t>80,5%</t>
-  </si>
-  <si>
-    <t>93,58%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>26,02%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>18,36%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
+    <t>19,24%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>52,97%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>13,02%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>34,68%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
   </si>
   <si>
     <t>0,32%</t>
   </si>
   <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>89,51%</t>
-  </si>
-  <si>
-    <t>84,27%</t>
-  </si>
-  <si>
-    <t>93,19%</t>
-  </si>
-  <si>
-    <t>91,8%</t>
-  </si>
-  <si>
-    <t>88,09%</t>
-  </si>
-  <si>
-    <t>94,28%</t>
-  </si>
-  <si>
-    <t>90,68%</t>
-  </si>
-  <si>
-    <t>87,35%</t>
-  </si>
-  <si>
-    <t>92,81%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>13,13%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>9,94%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>90,41%</t>
-  </si>
-  <si>
-    <t>78,19%</t>
-  </si>
-  <si>
-    <t>94,03%</t>
-  </si>
-  <si>
-    <t>91,4%</t>
-  </si>
-  <si>
-    <t>89,95%</t>
-  </si>
-  <si>
-    <t>92,52%</t>
-  </si>
-  <si>
-    <t>90,93%</t>
-  </si>
-  <si>
-    <t>85,13%</t>
-  </si>
-  <si>
-    <t>92,79%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>21,1%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>13,3%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
+    <t>0,78%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -897,7 +894,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C260711A-E318-45CC-B21B-564FE7034D7A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{337AEBF0-405B-4EBD-BDA7-2947A65AD782}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1018,7 +1015,7 @@
         <v>285</v>
       </c>
       <c r="D4" s="7">
-        <v>225775</v>
+        <v>217562</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1033,7 +1030,7 @@
         <v>571</v>
       </c>
       <c r="I4" s="7">
-        <v>337609</v>
+        <v>303829</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1048,7 +1045,7 @@
         <v>856</v>
       </c>
       <c r="N4" s="7">
-        <v>563384</v>
+        <v>521390</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1069,7 +1066,7 @@
         <v>13</v>
       </c>
       <c r="D5" s="7">
-        <v>12553</v>
+        <v>11787</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1084,7 +1081,7 @@
         <v>44</v>
       </c>
       <c r="I5" s="7">
-        <v>26144</v>
+        <v>23632</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1099,7 +1096,7 @@
         <v>57</v>
       </c>
       <c r="N5" s="7">
-        <v>38698</v>
+        <v>35420</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1120,7 +1117,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="7">
-        <v>586</v>
+        <v>524</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>31</v>
@@ -1135,7 +1132,7 @@
         <v>8</v>
       </c>
       <c r="I6" s="7">
-        <v>5611</v>
+        <v>4994</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>34</v>
@@ -1150,7 +1147,7 @@
         <v>9</v>
       </c>
       <c r="N6" s="7">
-        <v>6197</v>
+        <v>5517</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>37</v>
@@ -1171,7 +1168,7 @@
         <v>1</v>
       </c>
       <c r="D7" s="7">
-        <v>1077</v>
+        <v>1004</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>41</v>
@@ -1186,31 +1183,31 @@
         <v>7</v>
       </c>
       <c r="I7" s="7">
-        <v>3910</v>
+        <v>3538</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>43</v>
       </c>
       <c r="K7" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>44</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>45</v>
       </c>
       <c r="M7" s="7">
         <v>8</v>
       </c>
       <c r="N7" s="7">
-        <v>4986</v>
+        <v>4542</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>47</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1222,51 +1219,51 @@
         <v>300</v>
       </c>
       <c r="D8" s="7">
-        <v>239991</v>
+        <v>230877</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H8" s="7">
         <v>630</v>
       </c>
       <c r="I8" s="7">
-        <v>373274</v>
+        <v>335993</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M8" s="7">
         <v>930</v>
       </c>
       <c r="N8" s="7">
-        <v>613265</v>
+        <v>566870</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>10</v>
@@ -1275,28 +1272,28 @@
         <v>793</v>
       </c>
       <c r="D9" s="7">
-        <v>851322</v>
+        <v>828874</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="G9" s="7" t="s">
         <v>52</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="H9" s="7">
         <v>1181</v>
       </c>
       <c r="I9" s="7">
-        <v>882653</v>
+        <v>863988</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="K9" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>51</v>
       </c>
       <c r="L9" s="7" t="s">
         <v>55</v>
@@ -1305,7 +1302,7 @@
         <v>1974</v>
       </c>
       <c r="N9" s="7">
-        <v>1733975</v>
+        <v>1692863</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>56</v>
@@ -1326,7 +1323,7 @@
         <v>33</v>
       </c>
       <c r="D10" s="7">
-        <v>89005</v>
+        <v>280890</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>59</v>
@@ -1341,7 +1338,7 @@
         <v>86</v>
       </c>
       <c r="I10" s="7">
-        <v>64825</v>
+        <v>58681</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>62</v>
@@ -1356,7 +1353,7 @@
         <v>119</v>
       </c>
       <c r="N10" s="7">
-        <v>153830</v>
+        <v>339571</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>65</v>
@@ -1377,7 +1374,7 @@
         <v>7</v>
       </c>
       <c r="D11" s="7">
-        <v>7102</v>
+        <v>6676</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>68</v>
@@ -1392,7 +1389,7 @@
         <v>11</v>
       </c>
       <c r="I11" s="7">
-        <v>6276</v>
+        <v>5767</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>71</v>
@@ -1407,7 +1404,7 @@
         <v>18</v>
       </c>
       <c r="N11" s="7">
-        <v>13378</v>
+        <v>12443</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>74</v>
@@ -1428,7 +1425,7 @@
         <v>1</v>
       </c>
       <c r="D12" s="7">
-        <v>700</v>
+        <v>693</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>77</v>
@@ -1443,7 +1440,7 @@
         <v>13</v>
       </c>
       <c r="I12" s="7">
-        <v>9582</v>
+        <v>8877</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>79</v>
@@ -1458,16 +1455,16 @@
         <v>14</v>
       </c>
       <c r="N12" s="7">
-        <v>10282</v>
+        <v>9570</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="P12" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1479,51 +1476,51 @@
         <v>834</v>
       </c>
       <c r="D13" s="7">
-        <v>948129</v>
+        <v>1117133</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H13" s="7">
         <v>1291</v>
       </c>
       <c r="I13" s="7">
-        <v>963336</v>
+        <v>937313</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M13" s="7">
         <v>2125</v>
       </c>
       <c r="N13" s="7">
-        <v>1911465</v>
+        <v>2054446</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -1532,46 +1529,46 @@
         <v>291</v>
       </c>
       <c r="D14" s="7">
-        <v>290305</v>
+        <v>277461</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>87</v>
       </c>
       <c r="H14" s="7">
         <v>411</v>
       </c>
       <c r="I14" s="7">
-        <v>311605</v>
+        <v>286679</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>90</v>
       </c>
       <c r="M14" s="7">
         <v>702</v>
       </c>
       <c r="N14" s="7">
-        <v>601911</v>
+        <v>564141</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1583,46 +1580,46 @@
         <v>21</v>
       </c>
       <c r="D15" s="7">
-        <v>27143</v>
+        <v>26413</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="F15" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="G15" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>96</v>
       </c>
       <c r="H15" s="7">
         <v>28</v>
       </c>
       <c r="I15" s="7">
-        <v>22949</v>
+        <v>20859</v>
       </c>
       <c r="J15" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="K15" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="K15" s="7" t="s">
+      <c r="L15" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>99</v>
       </c>
       <c r="M15" s="7">
         <v>49</v>
       </c>
       <c r="N15" s="7">
-        <v>50092</v>
+        <v>47272</v>
       </c>
       <c r="O15" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="P15" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="P15" s="7" t="s">
+      <c r="Q15" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1634,46 +1631,46 @@
         <v>4</v>
       </c>
       <c r="D16" s="7">
-        <v>5137</v>
+        <v>4625</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>105</v>
       </c>
       <c r="H16" s="7">
         <v>3</v>
       </c>
       <c r="I16" s="7">
-        <v>4186</v>
+        <v>4098</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>107</v>
+        <v>31</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="M16" s="7">
         <v>7</v>
       </c>
       <c r="N16" s="7">
-        <v>9322</v>
+        <v>8724</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1685,46 +1682,46 @@
         <v>2</v>
       </c>
       <c r="D17" s="7">
-        <v>1746</v>
+        <v>1684</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>80</v>
+        <v>109</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>32</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="H17" s="7">
         <v>1</v>
       </c>
       <c r="I17" s="7">
-        <v>690</v>
+        <v>651</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>32</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>79</v>
+        <v>112</v>
       </c>
       <c r="M17" s="7">
         <v>3</v>
       </c>
       <c r="N17" s="7">
-        <v>2436</v>
+        <v>2335</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1736,46 +1733,46 @@
         <v>318</v>
       </c>
       <c r="D18" s="7">
-        <v>324330</v>
+        <v>310183</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H18" s="7">
         <v>443</v>
       </c>
       <c r="I18" s="7">
-        <v>339430</v>
+        <v>312287</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M18" s="7">
         <v>761</v>
       </c>
       <c r="N18" s="7">
-        <v>663761</v>
+        <v>622471</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1789,7 +1786,7 @@
         <v>1369</v>
       </c>
       <c r="D19" s="7">
-        <v>1367402</v>
+        <v>1323897</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>116</v>
@@ -1804,7 +1801,7 @@
         <v>2163</v>
       </c>
       <c r="I19" s="7">
-        <v>1531867</v>
+        <v>1454497</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>119</v>
@@ -1819,7 +1816,7 @@
         <v>3532</v>
       </c>
       <c r="N19" s="7">
-        <v>2899269</v>
+        <v>2778394</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>122</v>
@@ -1840,7 +1837,7 @@
         <v>67</v>
       </c>
       <c r="D20" s="7">
-        <v>128701</v>
+        <v>319090</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>125</v>
@@ -1855,7 +1852,7 @@
         <v>158</v>
       </c>
       <c r="I20" s="7">
-        <v>113918</v>
+        <v>103172</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>128</v>
@@ -1870,7 +1867,7 @@
         <v>225</v>
       </c>
       <c r="N20" s="7">
-        <v>242620</v>
+        <v>422262</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>131</v>
@@ -1891,7 +1888,7 @@
         <v>12</v>
       </c>
       <c r="D21" s="7">
-        <v>12825</v>
+        <v>11825</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>134</v>
@@ -1906,31 +1903,31 @@
         <v>22</v>
       </c>
       <c r="I21" s="7">
-        <v>16073</v>
+        <v>14859</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>137</v>
       </c>
       <c r="K21" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="L21" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="M21" s="7">
         <v>34</v>
       </c>
       <c r="N21" s="7">
-        <v>28897</v>
+        <v>26684</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="P21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -1942,46 +1939,46 @@
         <v>4</v>
       </c>
       <c r="D22" s="7">
-        <v>3522</v>
+        <v>3381</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>144</v>
       </c>
       <c r="H22" s="7">
         <v>21</v>
       </c>
       <c r="I22" s="7">
-        <v>14182</v>
+        <v>13066</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="K22" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>146</v>
       </c>
       <c r="M22" s="7">
         <v>25</v>
       </c>
       <c r="N22" s="7">
-        <v>17704</v>
+        <v>16447</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -1993,51 +1990,51 @@
         <v>1452</v>
       </c>
       <c r="D23" s="7">
-        <v>1512450</v>
+        <v>1658193</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H23" s="7">
         <v>2364</v>
       </c>
       <c r="I23" s="7">
-        <v>1676040</v>
+        <v>1585593</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M23" s="7">
         <v>3816</v>
       </c>
       <c r="N23" s="7">
-        <v>3188490</v>
+        <v>3243787</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>
